--- a/0322corona_kanjya.xlsx
+++ b/0322corona_kanjya.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="214">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -476,13 +476,6 @@
   </si>
   <si>
     <t>尼崎</t>
-  </si>
-  <si>
-    <t>特定できず</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>尼崎</t>
@@ -838,13 +831,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確認中</t>
-    <rPh sb="0" eb="3">
-      <t>カクニンチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>介護老人保健施設グリーンアルス伊丹デイケアの関連</t>
     <rPh sb="0" eb="2">
       <t>カイゴ</t>
@@ -1084,9 +1070,6 @@
     <t>宝塚</t>
   </si>
   <si>
-    <t>確認中</t>
-  </si>
-  <si>
     <t>〇</t>
   </si>
   <si>
@@ -1094,9 +1077,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>行動歴調査中</t>
-  </si>
-  <si>
     <t>介護老人保健施設グリーンアルス伊丹デイケアを利用</t>
   </si>
   <si>
@@ -1104,9 +1084,6 @@
   </si>
   <si>
     <t>伊丹健康福祉事務所管内</t>
-  </si>
-  <si>
-    <t>不明</t>
   </si>
   <si>
     <t>症状なし</t>
@@ -1793,6 +1770,54 @@
     <t>3/22　24時現在</t>
     <rPh sb="7" eb="8">
       <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペイン(マドリード)からの帰国者</t>
+    <rPh sb="14" eb="17">
+      <t>キコクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査済</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海外からの帰国者</t>
+    <rPh sb="0" eb="2">
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キコクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィリピンからの帰国者</t>
+    <rPh sb="8" eb="11">
+      <t>キコクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベトナムからの帰国者</t>
+    <rPh sb="7" eb="10">
+      <t>キコクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イギリスからの帰国者</t>
+    <rPh sb="7" eb="10">
+      <t>キコクシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2778,8 +2803,8 @@
   </sheetPr>
   <dimension ref="B1:V117"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2805,7 +2830,7 @@
     <row r="1" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
@@ -2840,7 +2865,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="V3" s="4"/>
     </row>
@@ -2873,32 +2898,32 @@
         <v>45</v>
       </c>
       <c r="K4" s="71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L4" s="72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M4" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" s="73" t="s">
-        <v>86</v>
-      </c>
       <c r="Q4" s="75" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="R4" s="75"/>
       <c r="S4" s="75" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="T4" s="74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U4" s="1"/>
     </row>
@@ -2916,7 +2941,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="80" t="s">
         <v>43</v>
@@ -2931,12 +2956,12 @@
         <v>46</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L5" s="79"/>
       <c r="M5" s="79"/>
       <c r="N5" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O5" s="79"/>
       <c r="P5" s="79"/>
@@ -2963,7 +2988,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="80" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H6" s="80" t="s">
         <v>18</v>
@@ -2975,12 +3000,12 @@
         <v>46</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L6" s="79"/>
       <c r="M6" s="79"/>
       <c r="N6" s="10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O6" s="79"/>
       <c r="P6" s="79"/>
@@ -3007,7 +3032,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="80" t="s">
         <v>17</v>
@@ -3019,12 +3044,12 @@
         <v>46</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L7" s="79"/>
       <c r="M7" s="79"/>
       <c r="N7" s="10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O7" s="79"/>
       <c r="P7" s="79"/>
@@ -3060,7 +3085,7 @@
         <v>43911</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K8" s="66" t="s">
         <v>42</v>
@@ -3070,7 +3095,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="79"/>
       <c r="P8" s="79" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="83"/>
       <c r="R8" s="83"/>
@@ -3107,12 +3132,12 @@
         <v>46</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L9" s="79"/>
       <c r="M9" s="79"/>
       <c r="N9" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O9" s="79"/>
       <c r="P9" s="79"/>
@@ -3139,7 +3164,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="80" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H10" s="80" t="s">
         <v>18</v>
@@ -3151,12 +3176,12 @@
         <v>46</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L10" s="79"/>
       <c r="M10" s="79"/>
       <c r="N10" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O10" s="79"/>
       <c r="P10" s="79"/>
@@ -3183,7 +3208,7 @@
         <v>36</v>
       </c>
       <c r="G11" s="80" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H11" s="80" t="s">
         <v>18</v>
@@ -3195,12 +3220,12 @@
         <v>46</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L11" s="79"/>
       <c r="M11" s="79"/>
       <c r="N11" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O11" s="79"/>
       <c r="P11" s="79"/>
@@ -3227,7 +3252,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="80" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H12" s="80" t="s">
         <v>18</v>
@@ -3239,12 +3264,12 @@
         <v>46</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L12" s="79"/>
       <c r="M12" s="79"/>
       <c r="N12" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O12" s="79"/>
       <c r="P12" s="79"/>
@@ -3268,7 +3293,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="80" t="s">
         <v>43</v>
@@ -3280,10 +3305,10 @@
         <v>43907</v>
       </c>
       <c r="J13" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="L13" s="79"/>
       <c r="M13" s="79"/>
@@ -3293,7 +3318,7 @@
       <c r="Q13" s="83"/>
       <c r="R13" s="83"/>
       <c r="S13" s="83" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="T13" s="84"/>
       <c r="U13" s="1"/>
@@ -3315,7 +3340,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="80" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H14" s="80" t="s">
         <v>18</v>
@@ -3324,10 +3349,10 @@
         <v>43908</v>
       </c>
       <c r="J14" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="L14" s="79"/>
       <c r="M14" s="79"/>
@@ -3337,7 +3362,7 @@
       <c r="Q14" s="83"/>
       <c r="R14" s="83"/>
       <c r="S14" s="83" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="T14" s="84"/>
       <c r="U14" s="1"/>
@@ -3356,22 +3381,22 @@
         <v>10</v>
       </c>
       <c r="F15" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="80" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="80" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I15" s="81">
         <v>43909</v>
       </c>
       <c r="J15" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="L15" s="79"/>
       <c r="M15" s="79"/>
@@ -3381,7 +3406,7 @@
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
       <c r="S15" s="83" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="T15" s="84"/>
       <c r="U15" s="1"/>
@@ -3403,10 +3428,10 @@
         <v>35</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>22</v>
@@ -3415,12 +3440,12 @@
         <v>46</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -3447,7 +3472,7 @@
         <v>35</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>18</v>
@@ -3456,15 +3481,15 @@
         <v>43890</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -3485,30 +3510,30 @@
         <v>70</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K18" s="66" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -3535,7 +3560,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>18</v>
@@ -3547,12 +3572,12 @@
         <v>46</v>
       </c>
       <c r="K19" s="66" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -3573,13 +3598,13 @@
         <v>80</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>18</v>
@@ -3591,12 +3616,12 @@
         <v>46</v>
       </c>
       <c r="K20" s="66" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -3620,10 +3645,10 @@
         <v>11</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>18</v>
@@ -3632,7 +3657,7 @@
         <v>43908</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="K21" s="66" t="s">
         <v>42</v>
@@ -3642,7 +3667,7 @@
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
@@ -3664,10 +3689,10 @@
         <v>10</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>18</v>
@@ -3676,7 +3701,7 @@
         <v>43908</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="K22" s="66" t="s">
         <v>42</v>
@@ -3686,7 +3711,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
@@ -3711,7 +3736,7 @@
         <v>36</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>18</v>
@@ -3720,15 +3745,15 @@
         <v>43907</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="K23" s="66" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
@@ -3749,7 +3774,7 @@
         <v>50</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>34</v>
@@ -3763,8 +3788,8 @@
       <c r="I24" s="13">
         <v>43907</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>71</v>
+      <c r="J24" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>42</v>
@@ -3774,7 +3799,7 @@
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="24"/>
       <c r="R24" s="24"/>
@@ -3808,10 +3833,10 @@
         <v>43899</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="K25" s="66" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
@@ -3841,7 +3866,7 @@
         <v>36</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>18</v>
@@ -3850,15 +3875,15 @@
         <v>43904</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="K26" s="66" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
@@ -3885,24 +3910,24 @@
         <v>35</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I27" s="21">
         <v>43898</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="K27" s="66" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
@@ -3929,7 +3954,7 @@
         <v>35</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>18</v>
@@ -3938,15 +3963,15 @@
         <v>43904</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="K28" s="66" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
@@ -3973,7 +3998,7 @@
         <v>36</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>18</v>
@@ -3981,16 +4006,16 @@
       <c r="I29" s="13">
         <v>43902</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>71</v>
+      <c r="J29" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="K29" s="66" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
@@ -4017,7 +4042,7 @@
         <v>36</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>18</v>
@@ -4029,12 +4054,12 @@
         <v>46</v>
       </c>
       <c r="K30" s="66" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
       <c r="N30" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
@@ -4064,13 +4089,13 @@
         <v>5</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I31" s="13">
         <v>43900</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>40</v>
@@ -4112,10 +4137,10 @@
         <v>43902</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -4123,7 +4148,7 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="24" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="R32" s="24"/>
       <c r="S32" s="24"/>
@@ -4150,16 +4175,16 @@
         <v>6</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I33" s="13">
         <v>43904</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
@@ -4167,7 +4192,7 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="R33" s="24"/>
       <c r="S33" s="24"/>
@@ -4200,16 +4225,16 @@
         <v>43902</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="24"/>
@@ -4229,25 +4254,25 @@
         <v>70</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I35" s="13">
         <v>43901</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
@@ -4274,26 +4299,26 @@
         <v>11</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H36" s="65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -4330,10 +4355,10 @@
         <v>43897</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -4343,7 +4368,7 @@
       <c r="Q37" s="24"/>
       <c r="R37" s="24"/>
       <c r="S37" s="24" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="T37" s="15"/>
       <c r="U37" s="1"/>
@@ -4362,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P38" s="10"/>
       <c r="Q38" s="24"/>
@@ -4406,10 +4431,10 @@
         <v>26</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>18</v>
@@ -4418,16 +4443,16 @@
         <v>43900</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P39" s="10"/>
       <c r="Q39" s="24"/>
@@ -4453,24 +4478,24 @@
         <v>55</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
@@ -4497,24 +4522,24 @@
         <v>55</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I41" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K41" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
@@ -4541,24 +4566,24 @@
         <v>55</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
@@ -4585,24 +4610,24 @@
         <v>55</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H43" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K43" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
@@ -4629,24 +4654,24 @@
         <v>36</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H44" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K44" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
@@ -4676,22 +4701,22 @@
         <v>25</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="24"/>
@@ -4720,22 +4745,22 @@
         <v>25</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P46" s="10"/>
       <c r="Q46" s="24"/>
@@ -4764,7 +4789,7 @@
         <v>25</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I47" s="13">
         <v>43893</v>
@@ -4773,7 +4798,7 @@
         <v>60</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
@@ -4781,12 +4806,12 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="24" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="R47" s="24"/>
       <c r="S47" s="24"/>
       <c r="T47" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="U47" s="1"/>
     </row>
@@ -4810,16 +4835,16 @@
         <v>6</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I48" s="13">
         <v>43892</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -4829,7 +4854,7 @@
       <c r="Q48" s="24"/>
       <c r="R48" s="24"/>
       <c r="S48" s="24" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="T48" s="15"/>
       <c r="U48" s="1"/>
@@ -4848,22 +4873,22 @@
         <v>26</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I49" s="13">
         <v>43892</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -4873,7 +4898,7 @@
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
       <c r="S49" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="T49" s="15"/>
       <c r="U49" s="1"/>
@@ -4892,10 +4917,10 @@
         <v>26</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>29</v>
@@ -4904,10 +4929,10 @@
         <v>43899</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
@@ -4917,7 +4942,7 @@
       <c r="Q50" s="24"/>
       <c r="R50" s="24"/>
       <c r="S50" s="24" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="T50" s="15"/>
       <c r="U50" s="1"/>
@@ -4936,13 +4961,13 @@
         <v>26</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I51" s="13">
         <v>43900</v>
@@ -4951,10 +4976,10 @@
         <v>60</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
@@ -4980,10 +5005,10 @@
         <v>26</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H52" s="20" t="s">
         <v>18</v>
@@ -4992,16 +5017,16 @@
         <v>43898</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K52" s="69" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
       <c r="N52" s="18"/>
       <c r="O52" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P52" s="18"/>
       <c r="Q52" s="27"/>
@@ -5039,12 +5064,12 @@
         <v>60</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
@@ -5077,18 +5102,18 @@
         <v>57</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>60</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
@@ -5121,18 +5146,18 @@
         <v>57</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>60</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
@@ -5159,24 +5184,24 @@
         <v>55</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H56" s="20" t="s">
         <v>57</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K56" s="66" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
       <c r="N56" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O56" s="18"/>
       <c r="P56" s="18"/>
@@ -5200,27 +5225,27 @@
         <v>26</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>57</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
@@ -5244,27 +5269,27 @@
         <v>24</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>57</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
@@ -5291,7 +5316,7 @@
         <v>65</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>29</v>
@@ -5303,12 +5328,12 @@
         <v>60</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
@@ -5338,16 +5363,16 @@
         <v>13</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="I60" s="21">
         <v>43898</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K60" s="66" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
@@ -5374,26 +5399,26 @@
         <v>11</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G61" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="65" t="s">
         <v>110</v>
-      </c>
-      <c r="H61" s="65" t="s">
-        <v>112</v>
       </c>
       <c r="I61" s="13">
         <v>43902</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
@@ -5421,7 +5446,7 @@
         <v>35</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>17</v>
@@ -5430,15 +5455,15 @@
         <v>43897</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
@@ -5465,24 +5490,24 @@
         <v>36</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H63" s="67" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="I63" s="13">
         <v>43901</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
@@ -5512,16 +5537,16 @@
         <v>6</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I64" s="13">
         <v>43896</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
@@ -5529,7 +5554,7 @@
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="24" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
@@ -5556,16 +5581,16 @@
         <v>6</v>
       </c>
       <c r="H65" s="68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I65" s="13">
         <v>43897</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
@@ -5604,10 +5629,10 @@
         <v>43896</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
@@ -5615,7 +5640,7 @@
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="24" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
@@ -5648,10 +5673,10 @@
         <v>43898</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
@@ -5662,7 +5687,7 @@
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
       <c r="T67" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="U67" s="1"/>
     </row>
@@ -5692,10 +5717,10 @@
         <v>43885</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K68" s="23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
@@ -5706,7 +5731,7 @@
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
       <c r="T68" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="U68" s="1"/>
     </row>
@@ -5730,16 +5755,16 @@
         <v>6</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I69" s="13">
         <v>43897</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
@@ -5769,19 +5794,19 @@
         <v>35</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="I70" s="13">
         <v>43901</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
@@ -5811,22 +5836,22 @@
         <v>35</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I71" s="13">
         <v>43891</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K71" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
@@ -5855,7 +5880,7 @@
         <v>35</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>18</v>
@@ -5864,15 +5889,15 @@
         <v>43891</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
       <c r="N72" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
@@ -5899,7 +5924,7 @@
         <v>36</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>18</v>
@@ -5908,7 +5933,7 @@
         <v>43899</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K73" s="12" t="s">
         <v>63</v>
@@ -5916,7 +5941,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
       <c r="N73" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
@@ -5952,10 +5977,10 @@
         <v>43892</v>
       </c>
       <c r="J74" s="24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="L74" s="25"/>
       <c r="M74" s="10"/>
@@ -5994,7 +6019,7 @@
         <v>43901</v>
       </c>
       <c r="J75" s="24" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="K75" s="14" t="s">
         <v>42</v>
@@ -6004,7 +6029,7 @@
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q75" s="24"/>
       <c r="R75" s="24"/>
@@ -6037,8 +6062,8 @@
       <c r="I76" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J76" s="27" t="s">
-        <v>71</v>
+      <c r="J76" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="K76" s="66" t="s">
         <v>42</v>
@@ -6048,7 +6073,7 @@
       <c r="N76" s="18"/>
       <c r="O76" s="18"/>
       <c r="P76" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q76" s="27"/>
       <c r="R76" s="27"/>
@@ -6082,7 +6107,7 @@
         <v>22</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="K77" s="14" t="s">
         <v>42</v>
@@ -6092,7 +6117,7 @@
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q77" s="24"/>
       <c r="R77" s="24"/>
@@ -6126,7 +6151,7 @@
         <v>22</v>
       </c>
       <c r="J78" s="24" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="K78" s="14" t="s">
         <v>42</v>
@@ -6136,7 +6161,7 @@
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q78" s="24"/>
       <c r="R78" s="24"/>
@@ -6170,7 +6195,7 @@
         <v>43900</v>
       </c>
       <c r="J79" s="24" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="K79" s="14" t="s">
         <v>42</v>
@@ -6180,7 +6205,7 @@
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q79" s="24"/>
       <c r="R79" s="24"/>
@@ -6208,19 +6233,19 @@
         <v>6</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I80" s="21">
         <v>43895</v>
       </c>
-      <c r="J80" s="27" t="s">
-        <v>71</v>
+      <c r="J80" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L80" s="26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M80" s="18"/>
       <c r="N80" s="18"/>
@@ -6252,19 +6277,19 @@
         <v>6</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I81" s="13">
         <v>43887</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L81" s="25" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
@@ -6296,19 +6321,19 @@
         <v>6</v>
       </c>
       <c r="H82" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I82" s="21">
         <v>43888</v>
       </c>
-      <c r="J82" s="27" t="s">
-        <v>71</v>
+      <c r="J82" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="K82" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L82" s="26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M82" s="18"/>
       <c r="N82" s="18"/>
@@ -6334,13 +6359,13 @@
         <v>11</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>43</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I83" s="13">
         <v>43894</v>
@@ -6349,12 +6374,12 @@
         <v>60</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L83" s="25"/>
       <c r="M83" s="10"/>
       <c r="N83" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
@@ -6384,20 +6409,20 @@
         <v>6</v>
       </c>
       <c r="H84" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I84" s="21">
         <v>43900</v>
       </c>
       <c r="J84" s="27" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K84" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L84" s="26"/>
       <c r="M84" s="18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="N84" s="18"/>
       <c r="O84" s="18"/>
@@ -6422,10 +6447,10 @@
         <v>10</v>
       </c>
       <c r="F85" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G85" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="G85" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="H85" s="20" t="s">
         <v>17</v>
@@ -6434,13 +6459,13 @@
         <v>43896</v>
       </c>
       <c r="J85" s="27" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L85" s="25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
@@ -6466,25 +6491,25 @@
         <v>11</v>
       </c>
       <c r="F86" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G86" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G86" s="19" t="s">
-        <v>78</v>
-      </c>
       <c r="H86" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I86" s="21">
         <v>43891</v>
       </c>
       <c r="J86" s="27" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L86" s="25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
@@ -6513,7 +6538,7 @@
         <v>35</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H87" s="20" t="s">
         <v>18</v>
@@ -6522,15 +6547,15 @@
         <v>43898</v>
       </c>
       <c r="J87" s="27" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L87" s="25"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
@@ -6557,7 +6582,7 @@
         <v>36</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H88" s="28" t="s">
         <v>18</v>
@@ -6566,7 +6591,7 @@
         <v>43893</v>
       </c>
       <c r="J88" s="27" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K88" s="12" t="s">
         <v>63</v>
@@ -6574,7 +6599,7 @@
       <c r="L88" s="25"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
@@ -6601,7 +6626,7 @@
         <v>35</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H89" s="20" t="s">
         <v>18</v>
@@ -6613,15 +6638,15 @@
         <v>60</v>
       </c>
       <c r="K89" s="65" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L89" s="25"/>
       <c r="M89" s="10"/>
       <c r="N89" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O89" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P89" s="10"/>
       <c r="Q89" s="24"/>
@@ -6666,7 +6691,7 @@
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q90" s="24"/>
       <c r="R90" s="24"/>
@@ -6694,16 +6719,16 @@
         <v>6</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I91" s="13">
         <v>43886</v>
       </c>
       <c r="J91" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="L91" s="25"/>
       <c r="M91" s="10"/>
@@ -6713,7 +6738,7 @@
       <c r="Q91" s="24"/>
       <c r="R91" s="24"/>
       <c r="S91" s="24" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="T91" s="15"/>
     </row>
@@ -6757,7 +6782,7 @@
       <c r="R92" s="27"/>
       <c r="S92" s="27"/>
       <c r="T92" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U92" s="1"/>
     </row>
@@ -6781,7 +6806,7 @@
         <v>25</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I93" s="13">
         <v>43896</v>
@@ -6790,11 +6815,11 @@
         <v>60</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L93" s="25"/>
       <c r="M93" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
@@ -6839,7 +6864,7 @@
       <c r="L94" s="25"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
@@ -6878,7 +6903,7 @@
         <v>60</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L95" s="25"/>
       <c r="M95" s="10"/>
@@ -6920,12 +6945,12 @@
         <v>46</v>
       </c>
       <c r="K96" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L96" s="30"/>
       <c r="M96" s="31"/>
       <c r="N96" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O96" s="31"/>
       <c r="P96" s="31"/>
@@ -6964,12 +6989,12 @@
         <v>46</v>
       </c>
       <c r="K97" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L97" s="36"/>
       <c r="M97" s="37"/>
       <c r="N97" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O97" s="37"/>
       <c r="P97" s="37"/>
@@ -7015,7 +7040,7 @@
       <c r="N98" s="31"/>
       <c r="O98" s="31"/>
       <c r="P98" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q98" s="24"/>
       <c r="R98" s="24"/>
@@ -7059,7 +7084,7 @@
       <c r="N99" s="31"/>
       <c r="O99" s="31"/>
       <c r="P99" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q99" s="24"/>
       <c r="R99" s="24"/>
@@ -7096,10 +7121,10 @@
         <v>46</v>
       </c>
       <c r="K100" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L100" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M100" s="37"/>
       <c r="N100" s="37"/>
@@ -7147,7 +7172,7 @@
       <c r="N101" s="31"/>
       <c r="O101" s="31"/>
       <c r="P101" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q101" s="29"/>
       <c r="R101" s="29"/>
@@ -7195,7 +7220,7 @@
       <c r="R102" s="29"/>
       <c r="S102" s="29"/>
       <c r="T102" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U102" s="1"/>
     </row>
@@ -7239,7 +7264,7 @@
       <c r="R103" s="29"/>
       <c r="S103" s="29"/>
       <c r="T103" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U103" s="1"/>
     </row>
@@ -7277,7 +7302,7 @@
       <c r="L104" s="36"/>
       <c r="M104" s="37"/>
       <c r="N104" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O104" s="37"/>
       <c r="P104" s="37"/>
@@ -7323,7 +7348,7 @@
       <c r="N105" s="31"/>
       <c r="O105" s="31"/>
       <c r="P105" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q105" s="24"/>
       <c r="R105" s="24"/>
@@ -7360,12 +7385,12 @@
         <v>46</v>
       </c>
       <c r="K106" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L106" s="36"/>
       <c r="M106" s="37"/>
       <c r="N106" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O106" s="37"/>
       <c r="P106" s="37"/>
@@ -7415,7 +7440,7 @@
       <c r="R107" s="29"/>
       <c r="S107" s="29"/>
       <c r="T107" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U107" s="1"/>
     </row>
@@ -7448,7 +7473,7 @@
         <v>46</v>
       </c>
       <c r="K108" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L108" s="36"/>
       <c r="M108" s="37"/>
@@ -7459,7 +7484,7 @@
       <c r="R108" s="34"/>
       <c r="S108" s="34"/>
       <c r="T108" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U108" s="1"/>
     </row>
@@ -7503,7 +7528,7 @@
       <c r="R109" s="29"/>
       <c r="S109" s="29"/>
       <c r="T109" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U109" s="1"/>
     </row>
@@ -7547,7 +7572,7 @@
       <c r="R110" s="29"/>
       <c r="S110" s="29"/>
       <c r="T110" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U110" s="1"/>
     </row>
@@ -7591,7 +7616,7 @@
       <c r="R111" s="29"/>
       <c r="S111" s="29"/>
       <c r="T111" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U111" s="1"/>
     </row>
@@ -7635,7 +7660,7 @@
       <c r="R112" s="29"/>
       <c r="S112" s="29"/>
       <c r="T112" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U112" s="1"/>
     </row>
@@ -7679,7 +7704,7 @@
       <c r="R113" s="29"/>
       <c r="S113" s="29"/>
       <c r="T113" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U113" s="1"/>
     </row>
@@ -7712,7 +7737,7 @@
         <v>46</v>
       </c>
       <c r="K114" s="23" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="L114" s="30"/>
       <c r="M114" s="31"/>
@@ -7754,7 +7779,7 @@
         <v>46</v>
       </c>
       <c r="K115" s="57" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="L115" s="58"/>
       <c r="M115" s="59"/>
@@ -7778,7 +7803,7 @@
       <c r="I116" s="62"/>
       <c r="J116" s="62"/>
       <c r="K116" s="63" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L116" s="64">
         <f>COUNTIF(L5:L115,"〇")</f>
@@ -7825,7 +7850,7 @@
       <c r="I117" s="62"/>
       <c r="J117" s="62"/>
       <c r="K117" s="63" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L117" s="64"/>
       <c r="M117" s="64"/>
@@ -7845,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="U117" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
